--- a/_cours/évaluations.xlsx
+++ b/_cours/évaluations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierross/Documents/Professionnel/bioecologie/_cours/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierross/Documents/professionnel/bioecologie/_cours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C673256D-1D88-6B49-9C21-EC7DA312A582}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879FF4F7-E77B-7D4E-9309-0D6674E2B85F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="1400" windowWidth="17300" windowHeight="12820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="76">
   <si>
     <t>Audet</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Ok</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -1111,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1195,6 +1198,9 @@
       <c r="D2" t="s">
         <v>74</v>
       </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1234,6 +1240,12 @@
       <c r="C5" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="D5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1276,6 +1288,9 @@
       <c r="D8" t="s">
         <v>74</v>
       </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1318,6 +1333,9 @@
       <c r="D11" t="s">
         <v>74</v>
       </c>
+      <c r="E11" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1332,6 +1350,9 @@
       <c r="D12" t="s">
         <v>74</v>
       </c>
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1360,6 +1381,9 @@
       <c r="D14" t="s">
         <v>74</v>
       </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1389,7 +1413,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1403,7 +1427,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1417,7 +1441,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1430,8 +1454,11 @@
       <c r="D19" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1445,7 +1472,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1458,8 +1485,11 @@
       <c r="D21" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1472,8 +1502,11 @@
       <c r="D22" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1487,7 +1520,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1500,8 +1533,11 @@
       <c r="D24" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1514,8 +1550,11 @@
       <c r="D25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1529,7 +1568,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1543,7 +1582,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1556,8 +1595,11 @@
       <c r="D28" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1573,7 +1615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -1582,7 +1624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
         <f>SUM(C30:C31)</f>
         <v>27</v>

--- a/_cours/évaluations.xlsx
+++ b/_cours/évaluations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierross/Documents/professionnel/bioecologie/_cours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879FF4F7-E77B-7D4E-9309-0D6674E2B85F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F537F9F5-9E4C-5949-B049-AF04E6023C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="1400" windowWidth="17300" windowHeight="12820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
   <si>
     <t>Audet</t>
   </si>
@@ -1114,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1229,6 +1229,9 @@
       <c r="D4" t="s">
         <v>74</v>
       </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1274,6 +1277,9 @@
       <c r="D7" t="s">
         <v>74</v>
       </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1319,6 +1325,9 @@
       <c r="D10" t="s">
         <v>74</v>
       </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1398,6 +1407,9 @@
       <c r="D15" t="s">
         <v>74</v>
       </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1412,6 +1424,9 @@
       <c r="D16" t="s">
         <v>74</v>
       </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1426,6 +1441,9 @@
       <c r="D17" t="s">
         <v>74</v>
       </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1440,6 +1458,9 @@
       <c r="D18" t="s">
         <v>74</v>
       </c>
+      <c r="E18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1519,6 +1540,9 @@
       <c r="D23" t="s">
         <v>74</v>
       </c>
+      <c r="E23" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1567,6 +1591,9 @@
       <c r="D26" t="s">
         <v>74</v>
       </c>
+      <c r="E26" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1579,6 +1606,9 @@
         <v>57</v>
       </c>
       <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" t="s">
         <v>74</v>
       </c>
     </row>

--- a/_cours/évaluations.xlsx
+++ b/_cours/évaluations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierross/Documents/professionnel/bioecologie/_cours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F537F9F5-9E4C-5949-B049-AF04E6023C83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4D76F4-C8C3-9146-9886-5137BB0EB2C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="1400" windowWidth="17300" windowHeight="12820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="76">
   <si>
     <t>Audet</t>
   </si>
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1215,6 +1215,9 @@
       <c r="D3" t="s">
         <v>74</v>
       </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1311,6 +1314,9 @@
       <c r="D9" t="s">
         <v>74</v>
       </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1374,6 +1380,9 @@
         <v>56</v>
       </c>
       <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
         <v>74</v>
       </c>
     </row>

--- a/_cours/évaluations.xlsx
+++ b/_cours/évaluations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierross/Documents/professionnel/bioecologie/_cours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4D76F4-C8C3-9146-9886-5137BB0EB2C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783AC48E-762B-BC49-9DEE-FA58174501D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="1400" windowWidth="17300" windowHeight="12820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="75">
   <si>
     <t>Audet</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Claudiane</t>
   </si>
   <si>
-    <t>Boucher</t>
-  </si>
-  <si>
     <t>Catherine</t>
   </si>
   <si>
@@ -257,7 +254,7 @@
     <t>Ok</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Retard 1 jour</t>
   </si>
 </sst>
 </file>
@@ -749,7 +746,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -757,6 +754,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1112,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1131,58 +1129,58 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -1193,13 +1191,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -1210,13 +1211,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -1227,446 +1228,471 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
       <c r="C22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="D22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="3">
+        <f>COUNTIF(C$2:C$27,A29)</f>
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <f>COUNTIF(D2:D27,"Ok")</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
       <c r="C30" s="3">
-        <f>COUNTIF(C$2:C$28,A30)</f>
-        <v>16</v>
-      </c>
-      <c r="D30">
-        <f>COUNTIF(D2:D28,"Ok")</f>
+        <f>COUNTIF(C$2:C$27,A30)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C31" s="1">
+        <f>SUM(C29:C30)</f>
         <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="3">
-        <f>COUNTIF(C$2:C$28,A31)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C32" s="1">
-        <f>SUM(C30:C31)</f>
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/_cours/évaluations.xlsx
+++ b/_cours/évaluations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierross/Documents/professionnel/bioecologie/_cours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783AC48E-762B-BC49-9DEE-FA58174501D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B0D5F3-6080-B24F-8B33-E280F2FF05B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="1400" windowWidth="17300" windowHeight="12820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="75">
   <si>
     <t>Audet</t>
   </si>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1287,6 +1287,9 @@
       <c r="E7" t="s">
         <v>73</v>
       </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1341,6 +1344,9 @@
       <c r="E10" t="s">
         <v>73</v>
       </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1376,6 +1382,9 @@
         <v>73</v>
       </c>
       <c r="E12" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" t="s">
         <v>73</v>
       </c>
     </row>

--- a/_cours/évaluations.xlsx
+++ b/_cours/évaluations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierross/Documents/professionnel/bioecologie/_cours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B0D5F3-6080-B24F-8B33-E280F2FF05B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316647F7-B3FC-3D46-AAB4-C71356817FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="1400" windowWidth="17300" windowHeight="12820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="75">
   <si>
     <t>Audet</t>
   </si>
@@ -816,7 +816,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Bureau">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -854,7 +854,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Bureau">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -960,7 +960,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Bureau">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1253,6 +1253,9 @@
       <c r="E5" t="s">
         <v>74</v>
       </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1268,6 +1271,9 @@
         <v>73</v>
       </c>
       <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
         <v>73</v>
       </c>
     </row>

--- a/_cours/évaluations.xlsx
+++ b/_cours/évaluations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierross/Documents/professionnel/bioecologie/_cours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316647F7-B3FC-3D46-AAB4-C71356817FFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557516BC-C54A-A647-9BBA-1DFA98566141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="1400" windowWidth="17300" windowHeight="12820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="75">
   <si>
     <t>Audet</t>
   </si>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1219,6 +1219,9 @@
       <c r="E3" t="s">
         <v>73</v>
       </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1236,6 +1239,9 @@
       <c r="E4" t="s">
         <v>73</v>
       </c>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1333,6 +1339,9 @@
       <c r="E9" t="s">
         <v>73</v>
       </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1530,6 +1539,9 @@
       <c r="E19" t="s">
         <v>74</v>
       </c>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1547,6 +1559,9 @@
       <c r="E20" t="s">
         <v>73</v>
       </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -1584,6 +1599,9 @@
       <c r="E22" t="s">
         <v>73</v>
       </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -1656,6 +1674,9 @@
         <v>73</v>
       </c>
       <c r="E26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" t="s">
         <v>73</v>
       </c>
     </row>

--- a/_cours/évaluations.xlsx
+++ b/_cours/évaluations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierross/Documents/professionnel/bioecologie/_cours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557516BC-C54A-A647-9BBA-1DFA98566141}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DFA8E9-009C-124D-BACC-117436EF4A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="1400" windowWidth="17300" windowHeight="12820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="75">
   <si>
     <t>Audet</t>
   </si>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1639,6 +1639,9 @@
       <c r="E24" t="s">
         <v>73</v>
       </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">

--- a/_cours/évaluations.xlsx
+++ b/_cours/évaluations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierross/Documents/professionnel/bioecologie/_cours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DFA8E9-009C-124D-BACC-117436EF4A07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BC927E-E2EC-F244-BB57-8DEA96A84315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="1400" windowWidth="17300" windowHeight="12820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="75">
   <si>
     <t>Audet</t>
   </si>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1362,6 +1362,9 @@
       <c r="F10" t="s">
         <v>73</v>
       </c>
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1382,6 +1385,9 @@
       <c r="F11" t="s">
         <v>73</v>
       </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1422,6 +1428,9 @@
       <c r="F13" t="s">
         <v>73</v>
       </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1442,6 +1451,9 @@
       <c r="F14" t="s">
         <v>73</v>
       </c>
+      <c r="G14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1483,7 +1495,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1503,7 +1515,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1522,8 +1534,11 @@
       <c r="F18" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1543,7 +1558,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1562,8 +1577,11 @@
       <c r="F20" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1583,7 +1601,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1603,7 +1621,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1623,7 +1641,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1642,8 +1660,11 @@
       <c r="F24" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1663,7 +1684,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1683,7 +1704,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1703,7 +1724,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1719,7 +1740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1728,7 +1749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
         <f>SUM(C29:C30)</f>
         <v>26</v>

--- a/_cours/évaluations.xlsx
+++ b/_cours/évaluations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierross/Documents/professionnel/bioecologie/_cours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BC927E-E2EC-F244-BB57-8DEA96A84315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33F4275-4E82-E645-8792-F72990F1334D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="1400" windowWidth="17300" windowHeight="12820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="75">
   <si>
     <t>Audet</t>
   </si>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1122,7 +1122,8 @@
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="3"/>
     <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="12.5" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1164,11 +1165,11 @@
       <c r="L1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>69</v>
@@ -1302,6 +1303,9 @@
       <c r="F7" t="s">
         <v>73</v>
       </c>
+      <c r="G7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1322,6 +1326,9 @@
       <c r="F8" t="s">
         <v>73</v>
       </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1342,6 +1349,9 @@
       <c r="F9" t="s">
         <v>73</v>
       </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1408,6 +1418,9 @@
       <c r="F12" t="s">
         <v>73</v>
       </c>
+      <c r="G12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1474,6 +1487,9 @@
       <c r="F15" t="s">
         <v>73</v>
       </c>
+      <c r="G15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1494,6 +1510,9 @@
       <c r="F16" s="5" t="s">
         <v>73</v>
       </c>
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1600,6 +1619,9 @@
       <c r="F21" t="s">
         <v>73</v>
       </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -1640,6 +1662,9 @@
       <c r="F23" t="s">
         <v>73</v>
       </c>
+      <c r="G23" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -1683,6 +1708,9 @@
       <c r="F25" t="s">
         <v>73</v>
       </c>
+      <c r="G25" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1703,6 +1731,9 @@
       <c r="F26" t="s">
         <v>73</v>
       </c>
+      <c r="G26" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -1721,6 +1752,9 @@
         <v>73</v>
       </c>
       <c r="F27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" t="s">
         <v>73</v>
       </c>
     </row>

--- a/_cours/évaluations.xlsx
+++ b/_cours/évaluations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierross/Documents/professionnel/bioecologie/_cours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33F4275-4E82-E645-8792-F72990F1334D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D16AB3D-211D-B847-BE10-BAF91C19838C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="1400" windowWidth="17300" windowHeight="12820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="75">
   <si>
     <t>Audet</t>
   </si>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1203,6 +1203,9 @@
       <c r="F2" t="s">
         <v>73</v>
       </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1223,6 +1226,9 @@
       <c r="F3" t="s">
         <v>73</v>
       </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1243,6 +1249,9 @@
       <c r="F4" t="s">
         <v>73</v>
       </c>
+      <c r="G4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1263,6 +1272,9 @@
       <c r="F5" t="s">
         <v>73</v>
       </c>
+      <c r="G5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1283,6 +1295,9 @@
       <c r="F6" t="s">
         <v>73</v>
       </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1533,6 +1548,9 @@
       <c r="F17" t="s">
         <v>73</v>
       </c>
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1576,6 +1594,9 @@
       <c r="F19" t="s">
         <v>73</v>
       </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -1640,6 +1661,9 @@
         <v>73</v>
       </c>
       <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" t="s">
         <v>73</v>
       </c>
     </row>

--- a/_cours/évaluations.xlsx
+++ b/_cours/évaluations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierross/Documents/professionnel/bioecologie/_cours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D16AB3D-211D-B847-BE10-BAF91C19838C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428C883C-855A-8945-B637-8C28CAEFFCEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="1400" windowWidth="17300" windowHeight="12820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="75">
   <si>
     <t>Audet</t>
   </si>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1206,6 +1206,9 @@
       <c r="G2" t="s">
         <v>73</v>
       </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1229,6 +1232,9 @@
       <c r="G3" t="s">
         <v>73</v>
       </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1252,6 +1258,9 @@
       <c r="G4" t="s">
         <v>73</v>
       </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1298,6 +1307,9 @@
       <c r="G6" t="s">
         <v>73</v>
       </c>
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1367,6 +1379,9 @@
       <c r="G9" t="s">
         <v>73</v>
       </c>
+      <c r="H9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1413,6 +1428,9 @@
       <c r="G11" t="s">
         <v>73</v>
       </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1436,6 +1454,9 @@
       <c r="G12" t="s">
         <v>73</v>
       </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1482,6 +1503,9 @@
       <c r="G14" t="s">
         <v>73</v>
       </c>
+      <c r="H14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1528,8 +1552,11 @@
       <c r="G16" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1552,7 +1579,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1575,7 +1602,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1597,8 +1624,11 @@
       <c r="G19" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1620,8 +1650,11 @@
       <c r="G20" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1644,7 +1677,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1666,8 +1699,11 @@
       <c r="G22" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1689,8 +1725,11 @@
       <c r="G23" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1712,8 +1751,11 @@
       <c r="G24" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1735,8 +1777,11 @@
       <c r="G25" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1758,8 +1803,11 @@
       <c r="G26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1782,7 +1830,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1798,7 +1846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1807,7 +1855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
         <f>SUM(C29:C30)</f>
         <v>26</v>

--- a/_cours/évaluations.xlsx
+++ b/_cours/évaluations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierross/Documents/professionnel/bioecologie/_cours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428C883C-855A-8945-B637-8C28CAEFFCEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86656D3C-0B5B-EB45-8293-277A73C9D273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3840" yWindow="1400" windowWidth="17300" windowHeight="12820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="75">
   <si>
     <t>Audet</t>
   </si>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1356,6 +1356,9 @@
       <c r="G8" t="s">
         <v>73</v>
       </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1480,6 +1483,9 @@
       <c r="G13" t="s">
         <v>73</v>
       </c>
+      <c r="H13" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1529,6 +1535,9 @@
       <c r="G15" t="s">
         <v>73</v>
       </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1578,6 +1587,9 @@
       <c r="G17" t="s">
         <v>73</v>
       </c>
+      <c r="H17" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1601,6 +1613,9 @@
       <c r="G18" t="s">
         <v>73</v>
       </c>
+      <c r="H18" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1676,6 +1691,9 @@
       <c r="G21" t="s">
         <v>73</v>
       </c>
+      <c r="H21" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -1827,6 +1845,9 @@
         <v>73</v>
       </c>
       <c r="G27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" t="s">
         <v>73</v>
       </c>
     </row>

--- a/_cours/évaluations.xlsx
+++ b/_cours/évaluations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierross/Documents/professionnel/bioecologie/_cours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86656D3C-0B5B-EB45-8293-277A73C9D273}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25242371-ABE0-7C4C-B076-F0D0B1B6F213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="1400" windowWidth="17300" windowHeight="12820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="75">
   <si>
     <t>Audet</t>
   </si>
@@ -1113,7 +1113,8 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1209,6 +1210,9 @@
       <c r="H2" t="s">
         <v>73</v>
       </c>
+      <c r="J2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1235,6 +1239,9 @@
       <c r="H3" t="s">
         <v>73</v>
       </c>
+      <c r="J3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1261,6 +1268,9 @@
       <c r="H4" t="s">
         <v>73</v>
       </c>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1284,6 +1294,9 @@
       <c r="G5" t="s">
         <v>74</v>
       </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1310,6 +1323,9 @@
       <c r="H6" t="s">
         <v>73</v>
       </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1333,6 +1349,9 @@
       <c r="G7" t="s">
         <v>73</v>
       </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1359,6 +1378,9 @@
       <c r="H8" t="s">
         <v>73</v>
       </c>
+      <c r="J8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1385,6 +1407,9 @@
       <c r="H9" t="s">
         <v>73</v>
       </c>
+      <c r="J9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1408,6 +1433,9 @@
       <c r="G10" t="s">
         <v>73</v>
       </c>
+      <c r="J10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1434,6 +1462,9 @@
       <c r="H11" t="s">
         <v>73</v>
       </c>
+      <c r="J11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1460,6 +1491,9 @@
       <c r="H12" t="s">
         <v>73</v>
       </c>
+      <c r="J12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1486,6 +1520,9 @@
       <c r="H13" t="s">
         <v>73</v>
       </c>
+      <c r="J13" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1512,6 +1549,9 @@
       <c r="H14" t="s">
         <v>73</v>
       </c>
+      <c r="J14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1538,6 +1578,9 @@
       <c r="H15" t="s">
         <v>73</v>
       </c>
+      <c r="J15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1564,8 +1607,11 @@
       <c r="H16" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1591,7 +1637,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1616,8 +1662,11 @@
       <c r="H18" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1642,8 +1691,11 @@
       <c r="H19" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1668,8 +1720,11 @@
       <c r="H20" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1694,8 +1749,11 @@
       <c r="H21" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1720,8 +1778,11 @@
       <c r="H22" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="H23" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1772,8 +1836,11 @@
       <c r="H24" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1798,8 +1865,11 @@
       <c r="H25" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1824,8 +1894,11 @@
       <c r="H26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1850,8 +1923,11 @@
       <c r="H27" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1867,7 +1943,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1876,7 +1952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
         <f>SUM(C29:C30)</f>
         <v>26</v>

--- a/_cours/évaluations.xlsx
+++ b/_cours/évaluations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierross/Documents/professionnel/bioecologie/_cours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25242371-ABE0-7C4C-B076-F0D0B1B6F213}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2887A87B-D605-454C-977C-3E936338A122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="76">
   <si>
     <t>Audet</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Retard 1 jour</t>
+  </si>
+  <si>
+    <t>Pas remis</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1117,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J28" sqref="J28"/>
+      <selection pane="topRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1213,6 +1216,9 @@
       <c r="J2" t="s">
         <v>73</v>
       </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1242,6 +1248,9 @@
       <c r="J3" t="s">
         <v>73</v>
       </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -1294,6 +1303,9 @@
       <c r="G5" t="s">
         <v>74</v>
       </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
       <c r="J5" t="s">
         <v>73</v>
       </c>
@@ -1349,6 +1361,9 @@
       <c r="G7" t="s">
         <v>73</v>
       </c>
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
       <c r="J7" t="s">
         <v>73</v>
       </c>
@@ -1381,6 +1396,9 @@
       <c r="J8" t="s">
         <v>73</v>
       </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1433,7 +1451,13 @@
       <c r="G10" t="s">
         <v>73</v>
       </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
       <c r="J10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1523,6 +1547,9 @@
       <c r="J13" t="s">
         <v>73</v>
       </c>
+      <c r="K13" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1552,6 +1579,9 @@
       <c r="J14" t="s">
         <v>73</v>
       </c>
+      <c r="K14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1610,8 +1640,11 @@
       <c r="J16" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1636,8 +1669,11 @@
       <c r="H17" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1666,7 +1702,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1695,7 +1731,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1723,8 +1759,11 @@
       <c r="J20" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1753,7 +1792,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1782,7 +1821,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1811,7 +1850,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1839,8 +1878,11 @@
       <c r="J24" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1868,8 +1910,11 @@
       <c r="J25" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1898,7 +1943,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1927,7 +1972,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1943,7 +1988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1952,7 +1997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
         <f>SUM(C29:C30)</f>
         <v>26</v>

--- a/_cours/évaluations.xlsx
+++ b/_cours/évaluations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivierross/Documents/professionnel/bioecologie/_cours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2887A87B-D605-454C-977C-3E936338A122}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59078871-7815-A84F-B7CF-B86E3B053934}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="77">
   <si>
     <t>Audet</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Pas remis</t>
+  </si>
+  <si>
+    <t>Pas de pj</t>
   </si>
 </sst>
 </file>
@@ -1116,8 +1119,8 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K26" sqref="K26"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1219,6 +1222,9 @@
       <c r="K2" t="s">
         <v>73</v>
       </c>
+      <c r="L2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -1280,6 +1286,9 @@
       <c r="J4" t="s">
         <v>73</v>
       </c>
+      <c r="K4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1309,6 +1318,9 @@
       <c r="J5" t="s">
         <v>73</v>
       </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -1338,6 +1350,9 @@
       <c r="J6" t="s">
         <v>73</v>
       </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1367,6 +1382,9 @@
       <c r="J7" t="s">
         <v>73</v>
       </c>
+      <c r="K7" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1428,6 +1446,9 @@
       <c r="J9" t="s">
         <v>73</v>
       </c>
+      <c r="K9" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1460,6 +1481,9 @@
       <c r="K10" t="s">
         <v>73</v>
       </c>
+      <c r="L10" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1489,6 +1513,9 @@
       <c r="J11" t="s">
         <v>73</v>
       </c>
+      <c r="K11" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -1518,6 +1545,9 @@
       <c r="J12" t="s">
         <v>73</v>
       </c>
+      <c r="K12" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1550,6 +1580,9 @@
       <c r="K13" t="s">
         <v>73</v>
       </c>
+      <c r="L13" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -1582,6 +1615,9 @@
       <c r="K14" t="s">
         <v>73</v>
       </c>
+      <c r="L14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -1611,6 +1647,12 @@
       <c r="J15" t="s">
         <v>73</v>
       </c>
+      <c r="K15" t="s">
+        <v>74</v>
+      </c>
+      <c r="L15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -1644,7 +1686,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1672,8 +1714,11 @@
       <c r="J17" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1701,8 +1746,14 @@
       <c r="J18" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1730,8 +1781,11 @@
       <c r="J19" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1763,7 +1817,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1791,8 +1845,14 @@
       <c r="J21" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K21" t="s">
+        <v>74</v>
+      </c>
+      <c r="L21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1820,8 +1880,11 @@
       <c r="J22" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>43</v>
       </c>
@@ -1849,8 +1912,14 @@
       <c r="J23" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K23" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +1950,11 @@
       <c r="K24" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -1913,8 +1985,11 @@
       <c r="K25" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -1942,8 +2017,11 @@
       <c r="J26" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1971,8 +2049,11 @@
       <c r="J27" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1988,7 +2069,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1997,7 +2078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
         <f>SUM(C29:C30)</f>
         <v>26</v>
